--- a/Population/BCIO-population-hierarchy.xlsx
+++ b/Population/BCIO-population-hierarchy.xlsx
@@ -525,7 +525,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
+          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:015278</t>
+          <t>BCIO:015419</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>country of birth population statistic</t>
+          <t>immigrant population statistic</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -2821,7 +2821,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>A population statistic about country of birth.</t>
+          <t>A population statistic about immigrant.</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -2833,7 +2833,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:015279</t>
+          <t>BCIO:015420</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2844,7 +2844,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>percentage country of birth population statistic</t>
+          <t>percentage immigrant population statistic</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>A(n) country of birth population statistic that is the percentage of people that have a country of birth in the population.</t>
+          <t>A(n) immigrant population statistic that is the percentage of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -2864,7 +2864,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:015280</t>
+          <t>BCIO:015421</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2875,7 +2875,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>proportion country of birth population statistic</t>
+          <t>proportion immigrant population statistic</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -2883,7 +2883,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>A(n) country of birth population statistic that is the proportion of people that have a country of birth in the population.</t>
+          <t>A(n) immigrant population statistic that is the proportion of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -2895,7 +2895,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:015419</t>
+          <t>BCIO:015790</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>immigrant population statistic</t>
+          <t>value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -2914,7 +2914,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>A population statistic about immigrant.</t>
+          <t>A population statistic about value of valuable material resource owned.</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -2926,7 +2926,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:015420</t>
+          <t>BCIO:015794</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2937,7 +2937,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>percentage immigrant population statistic</t>
+          <t>median value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -2945,7 +2945,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>A(n) immigrant population statistic that is the percentage of people that are a immigrant in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the median value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -2957,7 +2957,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:015421</t>
+          <t>BCIO:015791</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -2968,7 +2968,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>proportion immigrant population statistic</t>
+          <t>mean value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>A(n) immigrant population statistic that is the proportion of people that are a immigrant in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the mean value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:015790</t>
+          <t>BCIO:015793</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2996,18 +2996,18 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>value of valuable material resource owned population statistic</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>maximum value of valuable material resource owned population statistic</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>A population statistic about value of valuable material resource owned.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the maximum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3019,7 +3019,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:015794</t>
+          <t>BCIO:015792</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3030,7 +3030,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>median value of valuable material resource owned population statistic</t>
+          <t>minimum value of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3038,7 +3038,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>A(n) value of valuable material resource owned population statistic that is the median value of value of valuable material resource owned in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the minimum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -3050,7 +3050,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:015791</t>
+          <t>BCIO:015542</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3058,18 +3058,18 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>mean value of valuable material resource owned population statistic</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>not seeking employment population statistic</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>A(n) value of valuable material resource owned population statistic that is the mean value of value of valuable material resource owned in the population.</t>
+          <t>A population statistic about not seeking employment.</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3081,7 +3081,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:015793</t>
+          <t>BCIO:015543</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3092,7 +3092,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>maximum value of valuable material resource owned population statistic</t>
+          <t>percentage not seeking employment population statistic</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3100,7 +3100,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>A(n) value of valuable material resource owned population statistic that is the maximum value of value of valuable material resource owned in the population.</t>
+          <t>A(n) not seeking employment population statistic that is the percentage of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:015792</t>
+          <t>BCIO:015544</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>minimum value of valuable material resource owned population statistic</t>
+          <t>proportion not seeking employment population statistic</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>A(n) value of valuable material resource owned population statistic that is the minimum value of value of valuable material resource owned in the population.</t>
+          <t>A(n) not seeking employment population statistic that is the proportion of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:015542</t>
+          <t>BCIO:015395</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>not seeking employment population statistic</t>
+          <t>history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3162,7 +3162,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>A population statistic about not seeking employment.</t>
+          <t>A population statistic about history of exposure to childhood maltreatment.</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3174,7 +3174,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:015543</t>
+          <t>BCIO:015397</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3185,7 +3185,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>percentage not seeking employment population statistic</t>
+          <t>proportion history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>A(n) not seeking employment population statistic that is the percentage of people that are not seeking employment in the population.</t>
+          <t>A(n) history of exposure to childhood maltreatment population statistic that is the proportion of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -3205,7 +3205,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:015544</t>
+          <t>BCIO:015396</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>proportion not seeking employment population statistic</t>
+          <t>percentage history of exposure to childhood maltreatment population statistic</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -3224,7 +3224,7 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>A(n) not seeking employment population statistic that is the proportion of people that are not seeking employment in the population.</t>
+          <t>A(n) history of exposure to childhood maltreatment population statistic that is the percentage of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -3236,7 +3236,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:015395</t>
+          <t>BCIO:015625</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>history of exposure to childhood maltreatment population statistic</t>
+          <t>personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3255,7 +3255,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>A population statistic about history of exposure to childhood maltreatment.</t>
+          <t>A population statistic about personal history part of intervention exposure.</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:015397</t>
+          <t>BCIO:015626</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>proportion history of exposure to childhood maltreatment population statistic</t>
+          <t>mean personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to childhood maltreatment population statistic that is the proportion of people that have a history of exposure to childhood maltreatment in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:015396</t>
+          <t>BCIO:015627</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3309,7 +3309,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>percentage history of exposure to childhood maltreatment population statistic</t>
+          <t>minimum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -3317,7 +3317,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to childhood maltreatment population statistic that is the percentage of people that have a history of exposure to childhood maltreatment in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the minimum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -3329,7 +3329,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:015625</t>
+          <t>BCIO:015631</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3337,18 +3337,18 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>personal history part of intervention exposure population statistic</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>proportion personal history part of intervention exposure population statistic</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>A population statistic about personal history part of intervention exposure.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -3360,7 +3360,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:015626</t>
+          <t>BCIO:015630</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3371,7 +3371,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>mean personal history part of intervention exposure population statistic</t>
+          <t>percentage personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -3379,7 +3379,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the percentage value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -3391,7 +3391,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:015627</t>
+          <t>BCIO:015629</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3402,7 +3402,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>minimum personal history part of intervention exposure population statistic</t>
+          <t>median personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the minimum value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the median value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:015631</t>
+          <t>BCIO:015628</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3433,7 +3433,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>proportion personal history part of intervention exposure population statistic</t>
+          <t>maximum personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -3441,7 +3441,7 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the maximum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:015630</t>
+          <t>BCIO:015707</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3461,18 +3461,18 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>percentage personal history part of intervention exposure population statistic</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>second generation immigrant population statistic</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the percentage value of personal history part of intervention exposure in the population.</t>
+          <t>A population statistic about second generation immigrant.</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:015629</t>
+          <t>BCIO:015709</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3495,7 +3495,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>median personal history part of intervention exposure population statistic</t>
+          <t>proportion second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -3503,7 +3503,7 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the median value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) second generation immigrant population statistic that is the proportion of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -3515,7 +3515,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:015628</t>
+          <t>BCIO:015708</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>maximum personal history part of intervention exposure population statistic</t>
+          <t>percentage second generation immigrant population statistic</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -3534,7 +3534,7 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>A(n) personal history part of intervention exposure population statistic that is the maximum value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) second generation immigrant population statistic that is the percentage of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3546,7 +3546,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:015707</t>
+          <t>BCIO:015701</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -3556,7 +3556,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>second generation immigrant population statistic</t>
+          <t>retired status population statistic</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -3565,7 +3565,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>A population statistic about second generation immigrant.</t>
+          <t>A population statistic about retired status.</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -3577,7 +3577,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:015709</t>
+          <t>BCIO:015702</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3588,7 +3588,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>proportion second generation immigrant population statistic</t>
+          <t>percentage retired status population statistic</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>A(n) second generation immigrant population statistic that is the proportion of people that are a second generation immigrant in the population.</t>
+          <t>A(n) retired status population statistic that is the percentage of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:015708</t>
+          <t>BCIO:015703</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>percentage second generation immigrant population statistic</t>
+          <t>proportion retired status population statistic</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -3627,7 +3627,7 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>A(n) second generation immigrant population statistic that is the percentage of people that are a second generation immigrant in the population.</t>
+          <t>A(n) retired status population statistic that is the proportion of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -3639,7 +3639,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:015701</t>
+          <t>BCIO:015548</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3649,7 +3649,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>retired status population statistic</t>
+          <t>number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>A population statistic about retired status.</t>
+          <t>A population statistic about number of years in education completed.</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:015702</t>
+          <t>BCIO:015552</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -3681,7 +3681,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>percentage retired status population statistic</t>
+          <t>median number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -3689,7 +3689,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>A(n) retired status population statistic that is the percentage of people that have retired status in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the median number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -3701,7 +3701,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:015703</t>
+          <t>BCIO:015551</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3712,7 +3712,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>proportion retired status population statistic</t>
+          <t>maximum number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -3720,7 +3720,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>A(n) retired status population statistic that is the proportion of people that have retired status in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the maximum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:015548</t>
+          <t>BCIO:015549</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3740,18 +3740,18 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>number of years in education completed population statistic</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>mean number of years in education completed population statistic</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>A population statistic about number of years in education completed.</t>
+          <t>A(n) number of years in education completed population statistic that is the mean number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -3763,7 +3763,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:015552</t>
+          <t>BCIO:015550</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3774,7 +3774,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>median number of years in education completed population statistic</t>
+          <t>minimum number of years in education completed population statistic</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>A(n) number of years in education completed population statistic that is the median number of number of years in education completed in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the minimum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -3794,7 +3794,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:015551</t>
+          <t>BCIO:015458</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3802,18 +3802,18 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>maximum number of years in education completed population statistic</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>influencer role population statistic</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>A(n) number of years in education completed population statistic that is the maximum number of number of years in education completed in the population.</t>
+          <t>A population statistic about influencer role.</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:015549</t>
+          <t>BCIO:015460</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3836,7 +3836,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>mean number of years in education completed population statistic</t>
+          <t>proportion influencer role population statistic</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -3844,7 +3844,7 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>A(n) number of years in education completed population statistic that is the mean number of number of years in education completed in the population.</t>
+          <t>A(n) influencer role population statistic that is the proportion of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:015550</t>
+          <t>BCIO:015459</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3867,7 +3867,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>minimum number of years in education completed population statistic</t>
+          <t>percentage influencer role population statistic</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -3875,7 +3875,7 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>A(n) number of years in education completed population statistic that is the minimum number of number of years in education completed in the population.</t>
+          <t>A(n) influencer role population statistic that is the percentage of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -3887,7 +3887,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:015458</t>
+          <t>BCIO:015653</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>influencer role population statistic</t>
+          <t>place of residence population statistic</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>A population statistic about influencer role.</t>
+          <t>A population statistic about place of residence.</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:015460</t>
+          <t>BCIO:015654</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -3929,7 +3929,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>proportion influencer role population statistic</t>
+          <t>percentage place of residence population statistic</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -3937,7 +3937,7 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>A(n) influencer role population statistic that is the proportion of people that have a influencer role in the population.</t>
+          <t>A(n) place of residence population statistic that is the percentage of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -3949,7 +3949,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:015459</t>
+          <t>BCIO:015655</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -3960,7 +3960,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>percentage influencer role population statistic</t>
+          <t>proportion place of residence population statistic</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>A(n) influencer role population statistic that is the percentage of people that have a influencer role in the population.</t>
+          <t>A(n) place of residence population statistic that is the proportion of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:015653</t>
+          <t>BCIO:015266</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -3990,7 +3990,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>place of residence population statistic</t>
+          <t>caste membership population statistic</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>A population statistic about place of residence.</t>
+          <t>A population statistic about caste membership.</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:015654</t>
+          <t>BCIO:015267</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>percentage place of residence population statistic</t>
+          <t>percentage caste membership population statistic</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>A(n) place of residence population statistic that is the percentage of people that have a place of residence in the population.</t>
+          <t>A(n) caste membership population statistic that is the percentage of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:015655</t>
+          <t>BCIO:015268</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>proportion place of residence population statistic</t>
+          <t>proportion caste membership population statistic</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>A(n) place of residence population statistic that is the proportion of people that have a place of residence in the population.</t>
+          <t>A(n) caste membership population statistic that is the proportion of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4073,7 +4073,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:015266</t>
+          <t>BCIO:015188</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -4083,7 +4083,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>caste membership population statistic</t>
+          <t>achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4092,7 +4092,7 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>A population statistic about caste membership.</t>
+          <t>A population statistic about achieved upper secondary education .</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4104,7 +4104,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:015267</t>
+          <t>BCIO:015190</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -4115,7 +4115,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>percentage caste membership population statistic</t>
+          <t>proportion achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -4123,7 +4123,7 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>A(n) caste membership population statistic that is the percentage of people that have a caste membership in the population.</t>
+          <t>A(n) achieved upper secondary education  population statistic that is the proportion of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:015268</t>
+          <t>BCIO:015189</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>proportion caste membership population statistic</t>
+          <t>percentage achieved upper secondary education  population statistic</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -4154,7 +4154,7 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>A(n) caste membership population statistic that is the proportion of people that have a caste membership in the population.</t>
+          <t>A(n) achieved upper secondary education  population statistic that is the percentage of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -4166,7 +4166,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:015188</t>
+          <t>BCIO:015398</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>achieved upper secondary education  population statistic</t>
+          <t>homeless person population statistic</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -4185,7 +4185,7 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>A population statistic about achieved upper secondary education .</t>
+          <t>A population statistic about homeless person.</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -4197,7 +4197,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:015190</t>
+          <t>BCIO:015400</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>proportion achieved upper secondary education  population statistic</t>
+          <t>proportion homeless person population statistic</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>A(n) achieved upper secondary education  population statistic that is the proportion of people that have achieved upper secondary education  in the population.</t>
+          <t>A(n) homeless person population statistic that is the proportion of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:015189</t>
+          <t>BCIO:015399</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>percentage achieved upper secondary education  population statistic</t>
+          <t>percentage homeless person population statistic</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -4247,7 +4247,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>A(n) achieved upper secondary education  population statistic that is the percentage of people that have achieved upper secondary education  in the population.</t>
+          <t>A(n) homeless person population statistic that is the percentage of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:015398</t>
+          <t>BCIO:015597</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>homeless person population statistic</t>
+          <t>personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -4278,7 +4278,7 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>A population statistic about homeless person.</t>
+          <t>A population statistic about personal history of events that influence behaviour .</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -4290,7 +4290,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:015400</t>
+          <t>BCIO:015600</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>proportion homeless person population statistic</t>
+          <t>maximum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -4309,7 +4309,7 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>A(n) homeless person population statistic that is the proportion of people that are a homeless person in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the maximum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -4321,7 +4321,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:015399</t>
+          <t>BCIO:015602</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -4332,7 +4332,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>percentage homeless person population statistic</t>
+          <t>percentage personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -4340,7 +4340,7 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>A(n) homeless person population statistic that is the percentage of people that are a homeless person in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the percentage value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -4352,7 +4352,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:015597</t>
+          <t>BCIO:015601</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -4360,18 +4360,18 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>personal history of events that influence behaviour  population statistic</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>median personal history of events that influence behaviour  population statistic</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of events that influence behaviour .</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the median value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -4383,7 +4383,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:015600</t>
+          <t>BCIO:015599</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -4394,7 +4394,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>maximum personal history of events that influence behaviour  population statistic</t>
+          <t>minimum personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -4402,7 +4402,7 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the maximum value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the minimum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:015602</t>
+          <t>BCIO:015598</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -4425,7 +4425,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>percentage personal history of events that influence behaviour  population statistic</t>
+          <t>mean personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -4433,7 +4433,7 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the percentage value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the mean value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4445,7 +4445,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:015601</t>
+          <t>BCIO:015603</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -4456,7 +4456,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>median personal history of events that influence behaviour  population statistic</t>
+          <t>proportion personal history of events that influence behaviour  population statistic</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the median value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the proportion of individuals having a personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -4476,7 +4476,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:015599</t>
+          <t>BCIO:015669</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -4484,18 +4484,18 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>minimum personal history of events that influence behaviour  population statistic</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>quantity of valuable material resource owned population statistic</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the minimum value of personal history of events that influence behaviour  in the population.</t>
+          <t>A population statistic about quantity of valuable material resource owned.</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -4507,7 +4507,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:015598</t>
+          <t>BCIO:015671</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>mean personal history of events that influence behaviour  population statistic</t>
+          <t>minimum quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -4526,7 +4526,7 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the mean value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the minimum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:015603</t>
+          <t>BCIO:015673</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4549,7 +4549,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>proportion personal history of events that influence behaviour  population statistic</t>
+          <t>median quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>A(n) personal history of events that influence behaviour  population statistic that is the proportion of individuals having a personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the median number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:015669</t>
+          <t>BCIO:015672</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -4577,18 +4577,18 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>quantity of valuable material resource owned population statistic</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>maximum quantity of valuable material resource owned population statistic</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>A population statistic about quantity of valuable material resource owned.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the maximum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:015671</t>
+          <t>BCIO:015670</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -4611,7 +4611,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>minimum quantity of valuable material resource owned population statistic</t>
+          <t>mean quantity of valuable material resource owned population statistic</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>A(n) quantity of valuable material resource owned population statistic that is the minimum number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the mean number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -4631,7 +4631,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:015673</t>
+          <t>BCIO:015553</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4639,18 +4639,18 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>median quantity of valuable material resource owned population statistic</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>occupational role population statistic</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>A(n) quantity of valuable material resource owned population statistic that is the median number of quantity of valuable material resource owned in the population.</t>
+          <t>A population statistic about occupational role.</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4662,7 +4662,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:015672</t>
+          <t>BCIO:015555</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>maximum quantity of valuable material resource owned population statistic</t>
+          <t>proportion occupational role population statistic</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>A(n) quantity of valuable material resource owned population statistic that is the maximum number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) occupational role population statistic that is the proportion of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -4693,7 +4693,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:015670</t>
+          <t>BCIO:015554</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4704,7 +4704,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>mean quantity of valuable material resource owned population statistic</t>
+          <t>percentage occupational role population statistic</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -4712,7 +4712,7 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>A(n) quantity of valuable material resource owned population statistic that is the mean number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) occupational role population statistic that is the percentage of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:015553</t>
+          <t>BCIO:015618</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -4734,7 +4734,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>occupational role population statistic</t>
+          <t>personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -4743,7 +4743,7 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>A population statistic about occupational role.</t>
+          <t>A population statistic about personal history of same intervention exposure.</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -4755,7 +4755,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:015555</t>
+          <t>BCIO:015620</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4766,7 +4766,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>proportion occupational role population statistic</t>
+          <t>minimum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>A(n) occupational role population statistic that is the proportion of people that have a occupational role in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the minimum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:015554</t>
+          <t>BCIO:015622</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4797,7 +4797,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>percentage occupational role population statistic</t>
+          <t>median personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -4805,7 +4805,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>A(n) occupational role population statistic that is the percentage of people that have a occupational role in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the median value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -4817,7 +4817,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:015618</t>
+          <t>BCIO:015619</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4825,18 +4825,18 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>personal history of same intervention exposure population statistic</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>mean personal history of same intervention exposure population statistic</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of same intervention exposure.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the mean value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:015620</t>
+          <t>BCIO:015623</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4859,7 +4859,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>minimum personal history of same intervention exposure population statistic</t>
+          <t>percentage personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the minimum value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the percentage value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -4879,7 +4879,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:015622</t>
+          <t>BCIO:015621</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -4890,7 +4890,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>median personal history of same intervention exposure population statistic</t>
+          <t>maximum personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -4898,7 +4898,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the median value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the maximum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4910,7 +4910,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:015619</t>
+          <t>BCIO:015624</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4921,7 +4921,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>mean personal history of same intervention exposure population statistic</t>
+          <t>proportion personal history of same intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -4929,7 +4929,7 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the mean value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the proportion of individuals having a personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:015623</t>
+          <t>BCIO:015359</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -4949,18 +4949,18 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>percentage personal history of same intervention exposure population statistic</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>gender identity population statistic</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the percentage value of personal history of same intervention exposure in the population.</t>
+          <t>A population statistic about gender identity.</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4972,7 +4972,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:015621</t>
+          <t>BCIO:015766</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -4983,7 +4983,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>maximum personal history of same intervention exposure population statistic</t>
+          <t>transgender population statistic</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -4991,7 +4991,7 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the maximum value of personal history of same intervention exposure in the population.</t>
+          <t>A population statistic about transgender.</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:015624</t>
+          <t>BCIO:015768</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -5012,17 +5012,17 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>proportion personal history of same intervention exposure population statistic</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>proportion transgender population statistic</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
-          <t>A(n) personal history of same intervention exposure population statistic that is the proportion of individuals having a personal history of same intervention exposure in the population.</t>
+          <t>A(n) transgender population statistic that is the proportion of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -5034,7 +5034,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:015359</t>
+          <t>BCIO:015767</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -5042,18 +5042,18 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>gender identity population statistic</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>percentage transgender population statistic</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>A population statistic about gender identity.</t>
+          <t>A(n) transgender population statistic that is the percentage of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -5065,7 +5065,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:015766</t>
+          <t>BCIO:015360</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>transgender population statistic</t>
+          <t>percentage gender identity population statistic</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -5084,7 +5084,7 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
-          <t>A population statistic about transgender.</t>
+          <t>A(n) gender identity population statistic that is the percentage of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -5096,7 +5096,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:015768</t>
+          <t>BCIO:015329</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -5105,17 +5105,17 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>proportion transgender population statistic</t>
-        </is>
-      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>female gender population statistic</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
-          <t>A(n) transgender population statistic that is the proportion of people that are transgender in the population.</t>
+          <t>A population statistic about female gender.</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -5127,7 +5127,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:015767</t>
+          <t>BCIO:015331</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -5139,14 +5139,14 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>percentage transgender population statistic</t>
+          <t>proportion female gender population statistic</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>A(n) transgender population statistic that is the percentage of people that are transgender in the population.</t>
+          <t>A(n) female gender population statistic that is the proportion of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:015360</t>
+          <t>BCIO:015330</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -5167,17 +5167,17 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>percentage gender identity population statistic</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>percentage female gender population statistic</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>A(n) gender identity population statistic that is the percentage of people that have a gender identity in the population.</t>
+          <t>A(n) female gender population statistic that is the percentage of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -5189,7 +5189,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:015329</t>
+          <t>BCIO:015493</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -5200,7 +5200,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>female gender population statistic</t>
+          <t>male gender population statistic</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -5208,7 +5208,7 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>A population statistic about female gender.</t>
+          <t>A population statistic about male gender.</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:015331</t>
+          <t>BCIO:015495</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -5232,14 +5232,14 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>proportion female gender population statistic</t>
+          <t>proportion male gender population statistic</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
-          <t>A(n) female gender population statistic that is the proportion of people that have a female gender in the population.</t>
+          <t>A(n) male gender population statistic that is the proportion of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:015330</t>
+          <t>BCIO:015494</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -5263,14 +5263,14 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>percentage female gender population statistic</t>
+          <t>percentage male gender population statistic</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>A(n) female gender population statistic that is the percentage of people that have a female gender in the population.</t>
+          <t>A(n) male gender population statistic that is the percentage of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -5282,7 +5282,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:015493</t>
+          <t>BCIO:015539</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -5293,7 +5293,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>male gender population statistic</t>
+          <t>nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>A population statistic about male gender.</t>
+          <t>A population statistic about nonbinary gender.</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -5313,7 +5313,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:015495</t>
+          <t>BCIO:015540</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5325,14 +5325,14 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>proportion male gender population statistic</t>
+          <t>percentage nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>A(n) male gender population statistic that is the proportion of people that have a male gender in the population.</t>
+          <t>A(n) nonbinary gender population statistic that is the percentage of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5344,7 +5344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:015494</t>
+          <t>BCIO:015541</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -5356,14 +5356,14 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>percentage male gender population statistic</t>
+          <t>proportion nonbinary gender population statistic</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>A(n) male gender population statistic that is the percentage of people that have a male gender in the population.</t>
+          <t>A(n) nonbinary gender population statistic that is the proportion of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5375,7 +5375,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:015539</t>
+          <t>BCIO:015361</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>nonbinary gender population statistic</t>
+          <t>proportion gender identity population statistic</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -5394,7 +5394,7 @@
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
-          <t>A population statistic about nonbinary gender.</t>
+          <t>A(n) gender identity population statistic that is the proportion of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5406,7 +5406,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:015540</t>
+          <t>BCIO:015275</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -5415,17 +5415,17 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>percentage nonbinary gender population statistic</t>
-        </is>
-      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>cisgender population statistic</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>A(n) nonbinary gender population statistic that is the percentage of people that have a nonbinary gender in the population.</t>
+          <t>A population statistic about cisgender.</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:015541</t>
+          <t>BCIO:015277</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -5449,14 +5449,14 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>proportion nonbinary gender population statistic</t>
+          <t>proportion cisgender population statistic</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>A(n) nonbinary gender population statistic that is the proportion of people that have a nonbinary gender in the population.</t>
+          <t>A(n) cisgender population statistic that is the proportion of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5468,7 +5468,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:015361</t>
+          <t>BCIO:015276</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -5477,17 +5477,17 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>proportion gender identity population statistic</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>percentage cisgender population statistic</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>A(n) gender identity population statistic that is the proportion of people that have a gender identity in the population.</t>
+          <t>A(n) cisgender population statistic that is the percentage of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5499,7 +5499,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:015275</t>
+          <t>BCIO:015441</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -5507,18 +5507,18 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>cisgender population statistic</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>independently wealthy status population statistic</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>A population statistic about cisgender.</t>
+          <t>A population statistic about independently wealthy status.</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:015277</t>
+          <t>BCIO:015443</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -5539,17 +5539,17 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>proportion cisgender population statistic</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>proportion independently wealthy status population statistic</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
-          <t>A(n) cisgender population statistic that is the proportion of people that are cisgender in the population.</t>
+          <t>A(n) independently wealthy status population statistic that is the proportion of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5561,7 +5561,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:015276</t>
+          <t>BCIO:015442</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -5570,17 +5570,17 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>percentage cisgender population statistic</t>
-        </is>
-      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>percentage independently wealthy status population statistic</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
-          <t>A(n) cisgender population statistic that is the percentage of people that are cisgender in the population.</t>
+          <t>A(n) independently wealthy status population statistic that is the percentage of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:015441</t>
+          <t>BCIO:015725</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -5602,7 +5602,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>independently wealthy status population statistic</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>A population statistic about independently wealthy status.</t>
+          <t>A population statistic about socioeconomic status score.</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5623,7 +5623,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:015443</t>
+          <t>BCIO:015729</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -5634,7 +5634,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>proportion independently wealthy status population statistic</t>
+          <t>median socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -5642,7 +5642,7 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>A(n) independently wealthy status population statistic that is the proportion of people that have independently wealthy status in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:015442</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>percentage independently wealthy status population statistic</t>
+          <t>maximum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -5673,7 +5673,7 @@
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
-          <t>A(n) independently wealthy status population statistic that is the percentage of people that have independently wealthy status in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5685,7 +5685,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:015725</t>
+          <t>BCIO:015726</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -5693,18 +5693,18 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>socioeconomic status score population statistic</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>mean socioeconomic status score population statistic</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
-          <t>A population statistic about socioeconomic status score.</t>
+          <t>A(n) socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:015729</t>
+          <t>BCIO:015727</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -5727,7 +5727,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>median socioeconomic status score population statistic</t>
+          <t>minimum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -5735,7 +5735,7 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>A(n) socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5747,7 +5747,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015686</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -5755,18 +5755,18 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>maximum socioeconomic status score population statistic</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>rent-free occupier population statistic</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>A(n) socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
+          <t>A population statistic about rent-free occupier.</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:015726</t>
+          <t>BCIO:015689</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -5789,7 +5789,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>mean socioeconomic status score population statistic</t>
+          <t>rent-free occupier without owner's permission population statistic</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>A(n) socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
+          <t>A population statistic about rent-free occupier without owner's permission.</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5809,7 +5809,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:015727</t>
+          <t>BCIO:015691</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -5818,17 +5818,17 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>minimum socioeconomic status score population statistic</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>proportion rent-free occupier without owner's permission population statistic</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>A(n) socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
+          <t>A(n) rent-free occupier without owner's permission population statistic that is the proportion of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5840,7 +5840,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:015451</t>
+          <t>BCIO:015690</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -5848,18 +5848,18 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>individual income population statistic</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>percentage rent-free occupier without owner's permission population statistic</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>A population statistic about individual income.</t>
+          <t>A(n) rent-free occupier without owner's permission population statistic that is the percentage of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5871,7 +5871,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:015438</t>
+          <t>BCIO:015688</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -5882,7 +5882,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>income-related welfare benefit population statistic</t>
+          <t>proportion rent-free occupier population statistic</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -5890,7 +5890,7 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
-          <t>A population statistic about income-related welfare benefit.</t>
+          <t>A(n) rent-free occupier population statistic that is the proportion of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5902,7 +5902,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:015439</t>
+          <t>BCIO:015687</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -5911,17 +5911,17 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>percentage income-related welfare benefit population statistic</t>
-        </is>
-      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>percentage rent-free occupier population statistic</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>A(n) income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
+          <t>A(n) rent-free occupier population statistic that is the percentage of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5933,7 +5933,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015221</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -5942,17 +5942,17 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>proportion income-related welfare benefit population statistic</t>
-        </is>
-      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>agreed rent-free occupier population statistic</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>A(n) income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
+          <t>A population statistic about agreed rent-free occupier.</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5964,7 +5964,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:015454</t>
+          <t>BCIO:015222</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -5973,17 +5973,17 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>maximum individual income population statistic</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>percentage agreed rent-free occupier population statistic</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the maximum value of individual income in the population.</t>
+          <t>A(n) agreed rent-free occupier population statistic that is the percentage of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5995,7 +5995,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:015453</t>
+          <t>BCIO:015223</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -6004,17 +6004,17 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>minimum individual income population statistic</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>proportion agreed rent-free occupier population statistic</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the minimum value of individual income in the population.</t>
+          <t>A(n) agreed rent-free occupier population statistic that is the proportion of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6026,7 +6026,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015451</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -6034,18 +6034,18 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>median individual income population statistic</t>
-        </is>
-      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>individual income population statistic</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the median value of individual income in the population.</t>
+          <t>A population statistic about individual income.</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6057,7 +6057,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:015457</t>
+          <t>BCIO:015438</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -6068,7 +6068,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>proportion individual income population statistic</t>
+          <t>income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -6076,7 +6076,7 @@
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
+          <t>A population statistic about income-related welfare benefit.</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:015456</t>
+          <t>BCIO:015439</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -6097,17 +6097,17 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>percentage individual income population statistic</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>percentage income-related welfare benefit population statistic</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the percentage value of individual income in the population.</t>
+          <t>A(n) income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6119,7 +6119,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:015452</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -6128,17 +6128,17 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>mean individual income population statistic</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>proportion income-related welfare benefit population statistic</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>A(n) individual income population statistic that is the mean value of individual income in the population.</t>
+          <t>A(n) income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6150,7 +6150,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:015686</t>
+          <t>BCIO:015454</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -6158,18 +6158,18 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>rent-free occupier population statistic</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>maximum individual income population statistic</t>
+        </is>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>A population statistic about rent-free occupier.</t>
+          <t>A(n) individual income population statistic that is the maximum value of individual income in the population.</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6181,7 +6181,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:015689</t>
+          <t>BCIO:015453</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -6192,7 +6192,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>rent-free occupier without owner's permission population statistic</t>
+          <t>minimum individual income population statistic</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -6200,7 +6200,7 @@
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>A population statistic about rent-free occupier without owner's permission.</t>
+          <t>A(n) individual income population statistic that is the minimum value of individual income in the population.</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6212,7 +6212,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:015691</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -6221,17 +6221,17 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>proportion rent-free occupier without owner's permission population statistic</t>
-        </is>
-      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>median individual income population statistic</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
-          <t>A(n) rent-free occupier without owner's permission population statistic that is the proportion of people that are a rent-free occupier without owner's permission in the population.</t>
+          <t>A(n) individual income population statistic that is the median value of individual income in the population.</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6243,7 +6243,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:015690</t>
+          <t>BCIO:015457</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -6252,17 +6252,17 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>percentage rent-free occupier without owner's permission population statistic</t>
-        </is>
-      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>proportion individual income population statistic</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
-          <t>A(n) rent-free occupier without owner's permission population statistic that is the percentage of people that are a rent-free occupier without owner's permission in the population.</t>
+          <t>A(n) individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6274,7 +6274,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:015688</t>
+          <t>BCIO:015456</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -6285,7 +6285,7 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>proportion rent-free occupier population statistic</t>
+          <t>percentage individual income population statistic</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
@@ -6293,7 +6293,7 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
-          <t>A(n) rent-free occupier population statistic that is the proportion of people that are a rent-free occupier in the population.</t>
+          <t>A(n) individual income population statistic that is the percentage value of individual income in the population.</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6305,7 +6305,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:015687</t>
+          <t>BCIO:015452</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>percentage rent-free occupier population statistic</t>
+          <t>mean individual income population statistic</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -6324,7 +6324,7 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
-          <t>A(n) rent-free occupier population statistic that is the percentage of people that are a rent-free occupier in the population.</t>
+          <t>A(n) individual income population statistic that is the mean value of individual income in the population.</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6336,7 +6336,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:015221</t>
+          <t>BCIO:015218</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -6344,18 +6344,18 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>agreed rent-free occupier population statistic</t>
-        </is>
-      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>adult population statistic</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
-          <t>A population statistic about agreed rent-free occupier.</t>
+          <t>A population statistic about adult.</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6367,7 +6367,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:015222</t>
+          <t>BCIO:015219</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -6376,17 +6376,17 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>percentage agreed rent-free occupier population statistic</t>
-        </is>
-      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>percentage adult population statistic</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
-          <t>A(n) agreed rent-free occupier population statistic that is the percentage of people that are a agreed rent-free occupier in the population.</t>
+          <t>A(n) adult population statistic that is the percentage of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:015223</t>
+          <t>BCIO:015220</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -6407,17 +6407,17 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>proportion agreed rent-free occupier population statistic</t>
-        </is>
-      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>proportion adult population statistic</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
-          <t>A(n) agreed rent-free occupier population statistic that is the proportion of people that are a agreed rent-free occupier in the population.</t>
+          <t>A(n) adult population statistic that is the proportion of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6429,7 +6429,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:015218</t>
+          <t>BCIO:015467</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>adult population statistic</t>
+          <t>insured party role population statistic</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -6448,7 +6448,7 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
-          <t>A population statistic about adult.</t>
+          <t>A population statistic about insured party role.</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:015219</t>
+          <t>BCIO:015656</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>percentage adult population statistic</t>
+          <t>policy holder role population statistic</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
-          <t>A(n) adult population statistic that is the percentage of people that are a adult in the population.</t>
+          <t>A population statistic about policy holder role.</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6491,7 +6491,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:015220</t>
+          <t>BCIO:015657</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -6500,17 +6500,17 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>proportion adult population statistic</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>percentage policy holder role population statistic</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
-          <t>A(n) adult population statistic that is the proportion of people that are a adult in the population.</t>
+          <t>A(n) policy holder role population statistic that is the percentage of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6522,7 +6522,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:015467</t>
+          <t>BCIO:015658</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -6530,18 +6530,18 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>insured party role population statistic</t>
-        </is>
-      </c>
+      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>proportion policy holder role population statistic</t>
+        </is>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
-          <t>A population statistic about insured party role.</t>
+          <t>A(n) policy holder role population statistic that is the proportion of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6553,7 +6553,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:015656</t>
+          <t>BCIO:015377</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -6562,17 +6562,17 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>policy holder role population statistic</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>health insurance policy holder role population statistic</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
-          <t>A population statistic about policy holder role.</t>
+          <t>A population statistic about health insurance policy holder role.</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:015657</t>
+          <t>BCIO:015379</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -6594,16 +6594,16 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>percentage policy holder role population statistic</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>proportion health insurance policy holder role population statistic</t>
+        </is>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
-          <t>A(n) policy holder role population statistic that is the percentage of people that have a policy holder role in the population.</t>
+          <t>A(n) health insurance policy holder role population statistic that is the proportion of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -6615,7 +6615,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:015658</t>
+          <t>BCIO:015378</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -6625,16 +6625,16 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>proportion policy holder role population statistic</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>percentage health insurance policy holder role population statistic</t>
+        </is>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
-          <t>A(n) policy holder role population statistic that is the proportion of people that have a policy holder role in the population.</t>
+          <t>A(n) health insurance policy holder role population statistic that is the percentage of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -6646,7 +6646,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:015377</t>
+          <t>BCIO:015469</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -6655,17 +6655,17 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>health insurance policy holder role population statistic</t>
-        </is>
-      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>proportion insured party role population statistic</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
-          <t>A population statistic about health insurance policy holder role.</t>
+          <t>A(n) insured party role population statistic that is the proportion of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -6677,7 +6677,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:015379</t>
+          <t>BCIO:015468</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -6686,17 +6686,17 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>percentage insured party role population statistic</t>
+        </is>
+      </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>proportion health insurance policy holder role population statistic</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
-          <t>A(n) health insurance policy holder role population statistic that is the proportion of people that have a health insurance policy holder role in the population.</t>
+          <t>A(n) insured party role population statistic that is the percentage of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:015378</t>
+          <t>BCIO:015314</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -6716,18 +6716,18 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>ethnic group membership population statistic</t>
+        </is>
+      </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>percentage health insurance policy holder role population statistic</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
-          <t>A(n) health insurance policy holder role population statistic that is the percentage of people that have a health insurance policy holder role in the population.</t>
+          <t>A population statistic about ethnic group membership.</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -6739,7 +6739,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:015469</t>
+          <t>BCIO:015315</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -6750,7 +6750,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>proportion insured party role population statistic</t>
+          <t>percentage ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -6758,7 +6758,7 @@
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
-          <t>A(n) insured party role population statistic that is the proportion of people that have a insured party role in the population.</t>
+          <t>A(n) ethnic group membership population statistic that is the percentage of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -6770,7 +6770,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:015468</t>
+          <t>BCIO:015316</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -6781,7 +6781,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>percentage insured party role population statistic</t>
+          <t>proportion ethnic group membership population statistic</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
@@ -6789,7 +6789,7 @@
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
-          <t>A(n) insured party role population statistic that is the percentage of people that have a insured party role in the population.</t>
+          <t>A(n) ethnic group membership population statistic that is the proportion of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -6801,7 +6801,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:015314</t>
+          <t>BCIO:015730</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t>ethnic group membership population statistic</t>
+          <t>stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
-          <t>A population statistic about ethnic group membership.</t>
+          <t>A population statistic about stay at home parent or guardian status.</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -6832,7 +6832,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:015315</t>
+          <t>BCIO:015732</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -6843,7 +6843,7 @@
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>percentage ethnic group membership population statistic</t>
+          <t>proportion stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
@@ -6851,7 +6851,7 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>A(n) ethnic group membership population statistic that is the percentage of people that have a ethnic group membership in the population.</t>
+          <t>A(n) stay at home parent or guardian status population statistic that is the proportion of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -6863,7 +6863,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:015316</t>
+          <t>BCIO:015731</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -6874,7 +6874,7 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>proportion ethnic group membership population statistic</t>
+          <t>percentage stay at home parent or guardian status population statistic</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
@@ -6882,7 +6882,7 @@
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
-          <t>A(n) ethnic group membership population statistic that is the proportion of people that have a ethnic group membership in the population.</t>
+          <t>A(n) stay at home parent or guardian status population statistic that is the percentage of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -6894,7 +6894,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:015730</t>
+          <t>BCIO:015611</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -6904,7 +6904,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>stay at home parent or guardian status population statistic</t>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
-          <t>A population statistic about stay at home parent or guardian status.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -6925,7 +6925,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:015732</t>
+          <t>BCIO:015615</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>proportion stay at home parent or guardian status population statistic</t>
+          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
-          <t>A(n) stay at home parent or guardian status population statistic that is the proportion of people that have stay at home parent or guardian status in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -6956,7 +6956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:015731</t>
+          <t>BCIO:015612</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -6967,7 +6967,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>percentage stay at home parent or guardian status population statistic</t>
+          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
@@ -6975,7 +6975,7 @@
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
-          <t>A(n) stay at home parent or guardian status population statistic that is the percentage of people that have stay at home parent or guardian status in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -6987,7 +6987,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:015611</t>
+          <t>BCIO:015617</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -6995,18 +6995,18 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:015615</t>
+          <t>BCIO:015616</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -7029,7 +7029,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I214" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -7049,7 +7049,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:015612</t>
+          <t>BCIO:015613</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -7060,7 +7060,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -7068,7 +7068,7 @@
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:015617</t>
+          <t>BCIO:015614</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -7091,7 +7091,7 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -7099,7 +7099,7 @@
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -7111,7 +7111,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:015616</t>
+          <t>BCIO:015545</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -7119,18 +7119,18 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>not working for health reasons population statistic</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A population statistic about not working for health reasons.</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -7142,7 +7142,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:015613</t>
+          <t>BCIO:015547</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -7153,7 +7153,7 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>proportion not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) not working for health reasons population statistic that is the proportion of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -7173,7 +7173,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:015614</t>
+          <t>BCIO:015546</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>percentage not working for health reasons population statistic</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -7192,7 +7192,7 @@
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
-          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) not working for health reasons population statistic that is the percentage of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:015545</t>
+          <t>BCIO:015632</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -7214,7 +7214,7 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>not working for health reasons population statistic</t>
+          <t>personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -7223,7 +7223,7 @@
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
-          <t>A population statistic about not working for health reasons.</t>
+          <t>A population statistic about personal psychological attribute.</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -7235,7 +7235,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:015547</t>
+          <t>BCIO:015634</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -7246,7 +7246,7 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>proportion not working for health reasons population statistic</t>
+          <t>minimum personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="I221" t="inlineStr"/>
@@ -7254,7 +7254,7 @@
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
-          <t>A(n) not working for health reasons population statistic that is the proportion of people that are not working for health reasons in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the minimum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -7266,7 +7266,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:015546</t>
+          <t>BCIO:015638</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -7277,7 +7277,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>percentage not working for health reasons population statistic</t>
+          <t>proportion personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
@@ -7285,7 +7285,7 @@
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
-          <t>A(n) not working for health reasons population statistic that is the percentage of people that are not working for health reasons in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the proportion of individuals having a personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -7297,7 +7297,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:015632</t>
+          <t>BCIO:015637</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -7305,18 +7305,18 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>personal psychological attribute population statistic</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>percentage personal psychological attribute population statistic</t>
+        </is>
+      </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>A population statistic about personal psychological attribute.</t>
+          <t>A(n) personal psychological attribute population statistic that is the percentage value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:015634</t>
+          <t>BCIO:015633</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -7339,7 +7339,7 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>minimum personal psychological attribute population statistic</t>
+          <t>mean personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
@@ -7347,7 +7347,7 @@
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the minimum value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the mean value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -7359,7 +7359,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:015638</t>
+          <t>BCIO:015636</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -7370,7 +7370,7 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>proportion personal psychological attribute population statistic</t>
+          <t>median personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
@@ -7378,7 +7378,7 @@
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the proportion of individuals having a personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the median value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -7390,7 +7390,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:015637</t>
+          <t>BCIO:015635</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>percentage personal psychological attribute population statistic</t>
+          <t>maximum personal psychological attribute population statistic</t>
         </is>
       </c>
       <c r="I226" t="inlineStr"/>
@@ -7409,7 +7409,7 @@
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the percentage value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the maximum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -7421,7 +7421,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:015633</t>
+          <t>BCIO:015470</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -7429,18 +7429,18 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>mean personal psychological attribute population statistic</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>interpersonal role population statistic</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the mean value of personal psychological attribute in the population.</t>
+          <t>A population statistic about interpersonal role.</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -7452,7 +7452,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:015636</t>
+          <t>BCIO:015471</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -7463,7 +7463,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>median personal psychological attribute population statistic</t>
+          <t>percentage interpersonal role population statistic</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
@@ -7471,7 +7471,7 @@
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the median value of personal psychological attribute in the population.</t>
+          <t>A(n) interpersonal role population statistic that is the percentage of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -7483,7 +7483,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:015635</t>
+          <t>BCIO:015472</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -7494,7 +7494,7 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>maximum personal psychological attribute population statistic</t>
+          <t>proportion interpersonal role population statistic</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
@@ -7502,7 +7502,7 @@
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
-          <t>A(n) personal psychological attribute population statistic that is the maximum value of personal psychological attribute in the population.</t>
+          <t>A(n) interpersonal role population statistic that is the proportion of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:015470</t>
+          <t>BCIO:015577</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -7522,18 +7522,18 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>interpersonal role population statistic</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>parental role population statistic</t>
+        </is>
+      </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
-          <t>A population statistic about interpersonal role.</t>
+          <t>A population statistic about parental role.</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -7545,7 +7545,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:015471</t>
+          <t>BCIO:015578</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -7554,17 +7554,17 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>percentage interpersonal role population statistic</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>percentage parental role population statistic</t>
+        </is>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
-          <t>A(n) interpersonal role population statistic that is the percentage of people that have a interpersonal role in the population.</t>
+          <t>A(n) parental role population statistic that is the percentage of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -7576,7 +7576,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BCIO:015472</t>
+          <t>BCIO:015579</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -7585,17 +7585,17 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>proportion interpersonal role population statistic</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>proportion parental role population statistic</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
-          <t>A(n) interpersonal role population statistic that is the proportion of people that have a interpersonal role in the population.</t>
+          <t>A(n) parental role population statistic that is the proportion of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -7607,7 +7607,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BCIO:015577</t>
+          <t>BCIO:015263</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -7615,18 +7615,18 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>parental role population statistic</t>
-        </is>
-      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>caregiving role population statistic</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
-          <t>A population statistic about parental role.</t>
+          <t>A population statistic about caregiving role.</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BCIO:015578</t>
+          <t>BCIO:015264</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -7647,17 +7647,17 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>percentage parental role population statistic</t>
-        </is>
-      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>percentage caregiving role population statistic</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
-          <t>A(n) parental role population statistic that is the percentage of people that have a parental role in the population.</t>
+          <t>A(n) caregiving role population statistic that is the percentage of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -7669,7 +7669,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BCIO:015579</t>
+          <t>BCIO:015265</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -7678,17 +7678,17 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>proportion parental role population statistic</t>
-        </is>
-      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>proportion caregiving role population statistic</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
-          <t>A(n) parental role population statistic that is the proportion of people that have a parental role in the population.</t>
+          <t>A(n) caregiving role population statistic that is the proportion of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -7700,7 +7700,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BCIO:015263</t>
+          <t>BCIO:015778</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -7710,7 +7710,7 @@
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
         <is>
-          <t>caregiving role population statistic</t>
+          <t>undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -7719,7 +7719,7 @@
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
-          <t>A population statistic about caregiving role.</t>
+          <t>A population statistic about undecidedness about enacting a behaviour.</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -7731,7 +7731,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BCIO:015264</t>
+          <t>BCIO:015779</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -7742,7 +7742,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>percentage caregiving role population statistic</t>
+          <t>percentage undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -7750,7 +7750,7 @@
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
-          <t>A(n) caregiving role population statistic that is the percentage of people that have a caregiving role in the population.</t>
+          <t>A(n) undecidedness about enacting a behaviour population statistic that is the percentage of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BCIO:015265</t>
+          <t>BCIO:015780</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -7773,7 +7773,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>proportion caregiving role population statistic</t>
+          <t>proportion undecidedness about enacting a behaviour population statistic</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -7781,7 +7781,7 @@
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
-          <t>A(n) caregiving role population statistic that is the proportion of people that have a caregiving role in the population.</t>
+          <t>A(n) undecidedness about enacting a behaviour population statistic that is the proportion of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -7793,7 +7793,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BCIO:015778</t>
+          <t>BCIO:015392</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -7803,7 +7803,7 @@
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
-          <t>undecidedness about enacting a behaviour population statistic</t>
+          <t>history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -7812,7 +7812,7 @@
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
-          <t>A population statistic about undecidedness about enacting a behaviour.</t>
+          <t>A population statistic about history of exposure to an occupational hazard.</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -7824,7 +7824,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BCIO:015779</t>
+          <t>BCIO:015393</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -7835,7 +7835,7 @@
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>percentage undecidedness about enacting a behaviour population statistic</t>
+          <t>percentage history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
-          <t>A(n) undecidedness about enacting a behaviour population statistic that is the percentage of people that have a undecidedness about enacting a behaviour in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -7855,7 +7855,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BCIO:015780</t>
+          <t>BCIO:015394</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -7866,7 +7866,7 @@
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>proportion undecidedness about enacting a behaviour population statistic</t>
+          <t>proportion history of exposure to an occupational hazard population statistic</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
@@ -7874,7 +7874,7 @@
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
-          <t>A(n) undecidedness about enacting a behaviour population statistic that is the proportion of people that have a undecidedness about enacting a behaviour in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -8165,7 +8165,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BCIO:015392</t>
+          <t>BCIO:015590</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -8175,7 +8175,7 @@
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>history of exposure to an occupational hazard population statistic</t>
+          <t>personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -8184,7 +8184,7 @@
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
-          <t>A population statistic about history of exposure to an occupational hazard.</t>
+          <t>A population statistic about personal history of behavioural lapse.</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -8196,7 +8196,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BCIO:015393</t>
+          <t>BCIO:015594</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -8207,7 +8207,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>percentage history of exposure to an occupational hazard population statistic</t>
+          <t>median personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
@@ -8215,7 +8215,7 @@
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the median value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -8227,7 +8227,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BCIO:015394</t>
+          <t>BCIO:015596</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -8238,7 +8238,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>proportion history of exposure to an occupational hazard population statistic</t>
+          <t>proportion personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
@@ -8246,7 +8246,7 @@
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the proportion of individuals having a personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -8258,7 +8258,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BCIO:015590</t>
+          <t>BCIO:015592</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -8266,18 +8266,18 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>personal history of behavioural lapse population statistic</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>minimum personal history of behavioural lapse population statistic</t>
+        </is>
+      </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of behavioural lapse.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the minimum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -8289,7 +8289,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BCIO:015594</t>
+          <t>BCIO:015593</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -8300,7 +8300,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
-          <t>median personal history of behavioural lapse population statistic</t>
+          <t>maximum personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
@@ -8308,7 +8308,7 @@
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the median value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the maximum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -8320,7 +8320,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BCIO:015596</t>
+          <t>BCIO:015591</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -8331,7 +8331,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>proportion personal history of behavioural lapse population statistic</t>
+          <t>mean personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
@@ -8339,7 +8339,7 @@
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the proportion of individuals having a personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the mean value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -8351,7 +8351,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BCIO:015592</t>
+          <t>BCIO:015595</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -8362,7 +8362,7 @@
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
         <is>
-          <t>minimum personal history of behavioural lapse population statistic</t>
+          <t>percentage personal history of behavioural lapse population statistic</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
@@ -8370,7 +8370,7 @@
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the minimum value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the percentage value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -8382,7 +8382,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BCIO:015593</t>
+          <t>BCIO:015311</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -8390,18 +8390,18 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>maximum personal history of behavioural lapse population statistic</t>
-        </is>
-      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>employment status population statistic</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the maximum value of personal history of behavioural lapse in the population.</t>
+          <t>A population statistic about employment status.</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -8413,7 +8413,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BCIO:015591</t>
+          <t>BCIO:015308</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -8424,7 +8424,7 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
-          <t>mean personal history of behavioural lapse population statistic</t>
+          <t>employed part time population statistic</t>
         </is>
       </c>
       <c r="I259" t="inlineStr"/>
@@ -8432,7 +8432,7 @@
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the mean value of personal history of behavioural lapse in the population.</t>
+          <t>A population statistic about employed part time.</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -8444,7 +8444,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BCIO:015595</t>
+          <t>BCIO:015310</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -8453,17 +8453,17 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>percentage personal history of behavioural lapse population statistic</t>
-        </is>
-      </c>
-      <c r="I260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>proportion employed part time population statistic</t>
+        </is>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
-          <t>A(n) personal history of behavioural lapse population statistic that is the percentage value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) employed part time population statistic that is the proportion of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BCIO:015311</t>
+          <t>BCIO:015309</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -8483,18 +8483,18 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>employment status population statistic</t>
-        </is>
-      </c>
+      <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>percentage employed part time population statistic</t>
+        </is>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
-          <t>A population statistic about employment status.</t>
+          <t>A(n) employed part time population statistic that is the percentage of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -8506,7 +8506,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BCIO:015308</t>
+          <t>BCIO:015305</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -8517,7 +8517,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>employed part time population statistic</t>
+          <t>employed in shift work population statistic</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
@@ -8525,7 +8525,7 @@
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
-          <t>A population statistic about employed part time.</t>
+          <t>A population statistic about employed in shift work.</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -8537,7 +8537,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BCIO:015310</t>
+          <t>BCIO:015307</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -8549,14 +8549,14 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>proportion employed part time population statistic</t>
+          <t>proportion employed in shift work population statistic</t>
         </is>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
-          <t>A(n) employed part time population statistic that is the proportion of people that are employed part time in the population.</t>
+          <t>A(n) employed in shift work population statistic that is the proportion of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -8568,7 +8568,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BCIO:015309</t>
+          <t>BCIO:015306</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -8580,14 +8580,14 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>percentage employed part time population statistic</t>
+          <t>percentage employed in shift work population statistic</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
-          <t>A(n) employed part time population statistic that is the percentage of people that are employed part time in the population.</t>
+          <t>A(n) employed in shift work population statistic that is the percentage of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -8599,7 +8599,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BCIO:015305</t>
+          <t>BCIO:015312</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -8610,7 +8610,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
-          <t>employed in shift work population statistic</t>
+          <t>percentage employment status population statistic</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -8618,7 +8618,7 @@
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
-          <t>A population statistic about employed in shift work.</t>
+          <t>A(n) employment status population statistic that is the percentage of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -8630,7 +8630,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BCIO:015307</t>
+          <t>BCIO:015784</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -8639,17 +8639,17 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>proportion employed in shift work population statistic</t>
-        </is>
-      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>unemployed population statistic</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
-          <t>A(n) employed in shift work population statistic that is the proportion of people that are employed in shift work in the population.</t>
+          <t>A population statistic about unemployed.</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -8661,7 +8661,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BCIO:015306</t>
+          <t>BCIO:015786</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -8673,14 +8673,14 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>percentage employed in shift work population statistic</t>
+          <t>proportion unemployed population statistic</t>
         </is>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
-          <t>A(n) employed in shift work population statistic that is the percentage of people that are employed in shift work in the population.</t>
+          <t>A(n) unemployed population statistic that is the proportion of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BCIO:015312</t>
+          <t>BCIO:015785</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -8701,17 +8701,17 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>percentage employment status population statistic</t>
-        </is>
-      </c>
-      <c r="I268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>percentage unemployed population statistic</t>
+        </is>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
-          <t>A(n) employment status population statistic that is the percentage of people that have a employment status in the population.</t>
+          <t>A(n) unemployed population statistic that is the percentage of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -8723,7 +8723,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BCIO:015784</t>
+          <t>BCIO:015302</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>unemployed population statistic</t>
+          <t>employed full time population statistic</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
@@ -8742,7 +8742,7 @@
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
-          <t>A population statistic about unemployed.</t>
+          <t>A population statistic about employed full time.</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -8754,7 +8754,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BCIO:015785</t>
+          <t>BCIO:015304</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -8766,14 +8766,14 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>percentage unemployed population statistic</t>
+          <t>proportion employed full time population statistic</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
-          <t>A(n) unemployed population statistic that is the percentage of people that are unemployed in the population.</t>
+          <t>A(n) employed full time population statistic that is the proportion of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -8785,7 +8785,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BCIO:015786</t>
+          <t>BCIO:015303</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -8797,14 +8797,14 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>proportion unemployed population statistic</t>
+          <t>percentage employed full time population statistic</t>
         </is>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
-          <t>A(n) unemployed population statistic that is the proportion of people that are unemployed in the population.</t>
+          <t>A(n) employed full time population statistic that is the percentage of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -8816,7 +8816,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BCIO:015302</t>
+          <t>BCIO:015435</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -8827,7 +8827,7 @@
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr">
         <is>
-          <t>employed full time population statistic</t>
+          <t>in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
@@ -8835,7 +8835,7 @@
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
-          <t>A population statistic about employed full time.</t>
+          <t>A population statistic about in uncertain employment.</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -8847,7 +8847,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BCIO:015304</t>
+          <t>BCIO:015436</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -8859,14 +8859,14 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>proportion employed full time population statistic</t>
+          <t>percentage in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
-          <t>A(n) employed full time population statistic that is the proportion of people that are employed full time in the population.</t>
+          <t>A(n) in uncertain employment population statistic that is the percentage of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BCIO:015303</t>
+          <t>BCIO:015437</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -8890,14 +8890,14 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>percentage employed full time population statistic</t>
+          <t>proportion in uncertain employment population statistic</t>
         </is>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
-          <t>A(n) employed full time population statistic that is the percentage of people that are employed full time in the population.</t>
+          <t>A(n) in uncertain employment population statistic that is the proportion of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -8909,7 +8909,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BCIO:015435</t>
+          <t>BCIO:015299</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -8920,7 +8920,7 @@
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
         <is>
-          <t>in uncertain employment population statistic</t>
+          <t>employed population statistic</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
@@ -8928,7 +8928,7 @@
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
-          <t>A population statistic about in uncertain employment.</t>
+          <t>A population statistic about employed.</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -8940,7 +8940,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BCIO:015436</t>
+          <t>BCIO:015300</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -8952,14 +8952,14 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>percentage in uncertain employment population statistic</t>
+          <t>percentage employed population statistic</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
-          <t>A(n) in uncertain employment population statistic that is the percentage of people that are in uncertain employment in the population.</t>
+          <t>A(n) employed population statistic that is the percentage of people that are employed in the population.</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -8971,7 +8971,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BCIO:015437</t>
+          <t>BCIO:015301</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -8983,14 +8983,14 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>proportion in uncertain employment population statistic</t>
+          <t>proportion employed population statistic</t>
         </is>
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
-          <t>A(n) in uncertain employment population statistic that is the proportion of people that are in uncertain employment in the population.</t>
+          <t>A(n) employed population statistic that is the proportion of people that are employed in the population.</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -9002,7 +9002,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BCIO:015299</t>
+          <t>BCIO:015710</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -9013,7 +9013,7 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
-          <t>employed population statistic</t>
+          <t>self employed status population statistic</t>
         </is>
       </c>
       <c r="I278" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
-          <t>A population statistic about employed.</t>
+          <t>A population statistic about self employed status.</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -9033,7 +9033,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BCIO:015300</t>
+          <t>BCIO:015712</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -9045,14 +9045,14 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>percentage employed population statistic</t>
+          <t>proportion self employed status population statistic</t>
         </is>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
-          <t>A(n) employed population statistic that is the percentage of people that are employed in the population.</t>
+          <t>A(n) self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -9064,7 +9064,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BCIO:015301</t>
+          <t>BCIO:015711</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -9076,14 +9076,14 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>proportion employed population statistic</t>
+          <t>percentage self employed status population statistic</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
-          <t>A(n) employed population statistic that is the proportion of people that are employed in the population.</t>
+          <t>A(n) self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -9095,7 +9095,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BCIO:015710</t>
+          <t>BCIO:015432</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -9106,7 +9106,7 @@
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
         <is>
-          <t>self employed status population statistic</t>
+          <t>in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="I281" t="inlineStr"/>
@@ -9114,7 +9114,7 @@
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
-          <t>A population statistic about self employed status.</t>
+          <t>A population statistic about in short term or temporary employment with known conditions.</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -9126,7 +9126,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BCIO:015712</t>
+          <t>BCIO:015434</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -9138,14 +9138,14 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>proportion self employed status population statistic</t>
+          <t>proportion in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
-          <t>A(n) self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
+          <t>A(n) in short term or temporary employment with known conditions population statistic that is the proportion of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -9157,7 +9157,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BCIO:015711</t>
+          <t>BCIO:015433</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -9169,14 +9169,14 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>percentage self employed status population statistic</t>
+          <t>percentage in short term or temporary employment with known conditions population statistic</t>
         </is>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
-          <t>A(n) self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
+          <t>A(n) in short term or temporary employment with known conditions population statistic that is the percentage of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -9188,7 +9188,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BCIO:015432</t>
+          <t>BCIO:015428</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -9199,7 +9199,7 @@
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
         <is>
-          <t>in short term or temporary employment with known conditions population statistic</t>
+          <t>in permanent employment population statistic</t>
         </is>
       </c>
       <c r="I284" t="inlineStr"/>
@@ -9207,7 +9207,7 @@
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
-          <t>A population statistic about in short term or temporary employment with known conditions.</t>
+          <t>A population statistic about in permanent employment.</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -9219,7 +9219,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BCIO:015434</t>
+          <t>BCIO:015431</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -9231,14 +9231,14 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>proportion in short term or temporary employment with known conditions population statistic</t>
+          <t>proportion in permanent employment population statistic</t>
         </is>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
-          <t>A(n) in short term or temporary employment with known conditions population statistic that is the proportion of people that are in short term or temporary employment with known conditions in the population.</t>
+          <t>A(n) in permanent employment population statistic that is the proportion of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -9250,7 +9250,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BCIO:015433</t>
+          <t>BCIO:015429</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -9262,14 +9262,14 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>percentage in short term or temporary employment with known conditions population statistic</t>
+          <t>percentage in permanent employment population statistic</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
-          <t>A(n) in short term or temporary employment with known conditions population statistic that is the percentage of people that are in short term or temporary employment with known conditions in the population.</t>
+          <t>A(n) in permanent employment population statistic that is the percentage of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -9281,7 +9281,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BCIO:015428</t>
+          <t>BCIO:015313</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -9292,7 +9292,7 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
         <is>
-          <t>in permanent employment population statistic</t>
+          <t>proportion employment status population statistic</t>
         </is>
       </c>
       <c r="I287" t="inlineStr"/>
@@ -9300,7 +9300,7 @@
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
-          <t>A population statistic about in permanent employment.</t>
+          <t>A(n) employment status population statistic that is the proportion of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -9312,7 +9312,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BCIO:015431</t>
+          <t>BCIO:015444</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -9320,18 +9320,18 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>individual human behaviour population statistic</t>
+        </is>
+      </c>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>proportion in permanent employment population statistic</t>
-        </is>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
-          <t>A(n) in permanent employment population statistic that is the proportion of people that are in permanent employment in the population.</t>
+          <t>A population statistic about individual human behaviour.</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -9343,7 +9343,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BCIO:015429</t>
+          <t>BCIO:015449</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -9352,17 +9352,17 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>percentage in permanent employment population statistic</t>
-        </is>
-      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>percentage individual human behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
-          <t>A(n) in permanent employment population statistic that is the percentage of people that are in permanent employment in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the percentage value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -9374,7 +9374,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BCIO:015313</t>
+          <t>BCIO:015447</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -9385,7 +9385,7 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
         <is>
-          <t>proportion employment status population statistic</t>
+          <t>maximum individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="I290" t="inlineStr"/>
@@ -9393,7 +9393,7 @@
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
-          <t>A(n) employment status population statistic that is the proportion of people that have a employment status in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the maximum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -9405,7 +9405,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BCIO:015444</t>
+          <t>BCIO:015450</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -9413,18 +9413,18 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>individual human behaviour population statistic</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>proportion individual human behaviour population statistic</t>
+        </is>
+      </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
-          <t>A population statistic about individual human behaviour.</t>
+          <t>A(n) individual human behaviour population statistic that is the proportion of individuals having a individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BCIO:015449</t>
+          <t>BCIO:015445</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -9447,7 +9447,7 @@
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
-          <t>percentage individual human behaviour population statistic</t>
+          <t>mean individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="I292" t="inlineStr"/>
@@ -9455,7 +9455,7 @@
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the percentage value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the mean value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -9467,7 +9467,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BCIO:015447</t>
+          <t>BCIO:015446</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -9478,7 +9478,7 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>maximum individual human behaviour population statistic</t>
+          <t>minimum individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="I293" t="inlineStr"/>
@@ -9486,7 +9486,7 @@
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the maximum value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the minimum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -9498,7 +9498,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BCIO:015450</t>
+          <t>BCIO:015448</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -9509,7 +9509,7 @@
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr">
         <is>
-          <t>proportion individual human behaviour population statistic</t>
+          <t>median individual human behaviour population statistic</t>
         </is>
       </c>
       <c r="I294" t="inlineStr"/>
@@ -9517,7 +9517,7 @@
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the proportion of individuals having a individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the median value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -9529,7 +9529,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BCIO:015445</t>
+          <t>BCIO:015374</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -9537,18 +9537,18 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>mean individual human behaviour population statistic</t>
-        </is>
-      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>having enacted a behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the mean value of individual human behaviour in the population.</t>
+          <t>A population statistic about having enacted a behaviour.</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -9560,7 +9560,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BCIO:015446</t>
+          <t>BCIO:015376</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -9571,7 +9571,7 @@
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
         <is>
-          <t>minimum individual human behaviour population statistic</t>
+          <t>proportion having enacted a behaviour population statistic</t>
         </is>
       </c>
       <c r="I296" t="inlineStr"/>
@@ -9579,7 +9579,7 @@
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the minimum value of individual human behaviour in the population.</t>
+          <t>A(n) having enacted a behaviour population statistic that is the proportion of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -9591,7 +9591,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BCIO:015448</t>
+          <t>BCIO:015375</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -9602,7 +9602,7 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr">
         <is>
-          <t>median individual human behaviour population statistic</t>
+          <t>percentage having enacted a behaviour population statistic</t>
         </is>
       </c>
       <c r="I297" t="inlineStr"/>
@@ -9610,7 +9610,7 @@
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
-          <t>A(n) individual human behaviour population statistic that is the median value of individual human behaviour in the population.</t>
+          <t>A(n) having enacted a behaviour population statistic that is the percentage of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -9622,7 +9622,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BCIO:015374</t>
+          <t>BCIO:015683</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -9632,7 +9632,7 @@
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>having enacted a behaviour population statistic</t>
+          <t>religious group membership population statistic</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
-          <t>A population statistic about having enacted a behaviour.</t>
+          <t>A population statistic about religious group membership.</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -9653,7 +9653,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BCIO:015376</t>
+          <t>BCIO:015685</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -9664,7 +9664,7 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
-          <t>proportion having enacted a behaviour population statistic</t>
+          <t>proportion religious group membership population statistic</t>
         </is>
       </c>
       <c r="I299" t="inlineStr"/>
@@ -9672,7 +9672,7 @@
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
-          <t>A(n) having enacted a behaviour population statistic that is the proportion of people that have having enacted a behaviour in the population.</t>
+          <t>A(n) religious group membership population statistic that is the proportion of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -9684,7 +9684,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BCIO:015375</t>
+          <t>BCIO:015684</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -9695,7 +9695,7 @@
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
         <is>
-          <t>percentage having enacted a behaviour population statistic</t>
+          <t>percentage religious group membership population statistic</t>
         </is>
       </c>
       <c r="I300" t="inlineStr"/>
@@ -9703,7 +9703,7 @@
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
-          <t>A(n) having enacted a behaviour population statistic that is the percentage of people that have having enacted a behaviour in the population.</t>
+          <t>A(n) religious group membership population statistic that is the percentage of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -9715,7 +9715,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BCIO:015683</t>
+          <t>BCIO:015677</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -9725,7 +9725,7 @@
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>religious group membership population statistic</t>
+          <t>questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="H301" t="inlineStr"/>
@@ -9734,7 +9734,7 @@
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
-          <t>A population statistic about religious group membership.</t>
+          <t>A population statistic about questioning sexual orientation.</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -9746,7 +9746,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BCIO:015685</t>
+          <t>BCIO:015679</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
-          <t>proportion religious group membership population statistic</t>
+          <t>proportion questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="I302" t="inlineStr"/>
@@ -9765,7 +9765,7 @@
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
-          <t>A(n) religious group membership population statistic that is the proportion of people that have a religious group membership in the population.</t>
+          <t>A(n) questioning sexual orientation population statistic that is the proportion of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -9777,7 +9777,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BCIO:015684</t>
+          <t>BCIO:015678</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -9788,7 +9788,7 @@
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
-          <t>percentage religious group membership population statistic</t>
+          <t>percentage questioning sexual orientation population statistic</t>
         </is>
       </c>
       <c r="I303" t="inlineStr"/>
@@ -9796,7 +9796,7 @@
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
-          <t>A(n) religious group membership population statistic that is the percentage of people that have a religious group membership in the population.</t>
+          <t>A(n) questioning sexual orientation population statistic that is the percentage of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -9808,7 +9808,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BCIO:015677</t>
+          <t>BCIO:015536</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -9818,7 +9818,7 @@
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>questioning sexual orientation population statistic</t>
+          <t>non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="H304" t="inlineStr"/>
@@ -9827,7 +9827,7 @@
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
-          <t>A population statistic about questioning sexual orientation.</t>
+          <t>A population statistic about non-gendered identity.</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -9839,7 +9839,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BCIO:015679</t>
+          <t>BCIO:015537</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -9850,7 +9850,7 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
         <is>
-          <t>proportion questioning sexual orientation population statistic</t>
+          <t>percentage non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
@@ -9858,7 +9858,7 @@
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
-          <t>A(n) questioning sexual orientation population statistic that is the proportion of people that are questioning sexual orientation in the population.</t>
+          <t>A(n) non-gendered identity population statistic that is the percentage of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -9870,7 +9870,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BCIO:015678</t>
+          <t>BCIO:015538</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -9881,7 +9881,7 @@
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
         <is>
-          <t>percentage questioning sexual orientation population statistic</t>
+          <t>proportion non-gendered identity population statistic</t>
         </is>
       </c>
       <c r="I306" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
-          <t>A(n) questioning sexual orientation population statistic that is the percentage of people that are questioning sexual orientation in the population.</t>
+          <t>A(n) non-gendered identity population statistic that is the proportion of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -9901,7 +9901,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BCIO:015536</t>
+          <t>BCIO:015278</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -9911,7 +9911,7 @@
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr">
         <is>
-          <t>non-gendered identity population statistic</t>
+          <t>country of birth population statistic</t>
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
@@ -9920,7 +9920,7 @@
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
-          <t>A population statistic about non-gendered identity.</t>
+          <t>A population statistic about country of birth.</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -9932,7 +9932,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BCIO:015537</t>
+          <t>BCIO:015279</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -9943,7 +9943,7 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
-          <t>percentage non-gendered identity population statistic</t>
+          <t>percentage country of birth population statistic</t>
         </is>
       </c>
       <c r="I308" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
-          <t>A(n) non-gendered identity population statistic that is the percentage of people that have a non-gendered identity in the population.</t>
+          <t>A(n) country of birth population statistic that is the percentage of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -9963,7 +9963,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BCIO:015538</t>
+          <t>BCIO:015280</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -9974,7 +9974,7 @@
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
         <is>
-          <t>proportion non-gendered identity population statistic</t>
+          <t>proportion country of birth population statistic</t>
         </is>
       </c>
       <c r="I309" t="inlineStr"/>
@@ -9982,7 +9982,7 @@
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
-          <t>A(n) non-gendered identity population statistic that is the proportion of people that have a non-gendered identity in the population.</t>
+          <t>A(n) country of birth population statistic that is the proportion of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -12970,7 +12970,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BCIO:015772</t>
+          <t>BCIO:015414</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -12980,7 +12980,7 @@
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr">
         <is>
-          <t>unawareness of a behaviour population statistic</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="H406" t="inlineStr"/>
@@ -12989,7 +12989,7 @@
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
-          <t>A population statistic about unawareness of a behaviour.</t>
+          <t>A population statistic about human age.</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -13001,7 +13001,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BCIO:015773</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -13012,7 +13012,7 @@
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
         <is>
-          <t>percentage unawareness of a behaviour population statistic</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="I407" t="inlineStr"/>
@@ -13020,7 +13020,7 @@
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
-          <t>A(n) unawareness of a behaviour population statistic that is the percentage of people that have a unawareness of a behaviour in the population.</t>
+          <t>A(n) human age population statistic that is the mean value of human age in the population.</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -13032,7 +13032,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BCIO:015774</t>
+          <t>BCIO:015418</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -13043,7 +13043,7 @@
       <c r="G408" t="inlineStr"/>
       <c r="H408" t="inlineStr">
         <is>
-          <t>proportion unawareness of a behaviour population statistic</t>
+          <t>median human age population statistic</t>
         </is>
       </c>
       <c r="I408" t="inlineStr"/>
@@ -13051,7 +13051,7 @@
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
-          <t>A(n) unawareness of a behaviour population statistic that is the proportion of people that have a unawareness of a behaviour in the population.</t>
+          <t>A(n) human age population statistic that is the median value of human age in the population.</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -13063,7 +13063,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BCIO:015414</t>
+          <t>BCIO:015417</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -13071,18 +13071,18 @@
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>human age population statistic</t>
-        </is>
-      </c>
-      <c r="H409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>maximum human age population statistic</t>
+        </is>
+      </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
-          <t>A population statistic about human age.</t>
+          <t>A(n) human age population statistic that is the maximum value of human age in the population.</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -13094,7 +13094,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -13105,7 +13105,7 @@
       <c r="G410" t="inlineStr"/>
       <c r="H410" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>minimum human age population statistic</t>
         </is>
       </c>
       <c r="I410" t="inlineStr"/>
@@ -13113,7 +13113,7 @@
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
-          <t>A(n) human age population statistic that is the mean value of human age in the population.</t>
+          <t>A(n) human age population statistic that is the minimum value of human age in the population.</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
@@ -13125,7 +13125,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BCIO:015418</t>
+          <t>BCIO:015772</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -13133,18 +13133,18 @@
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>median human age population statistic</t>
-        </is>
-      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>unawareness of a behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
-          <t>A(n) human age population statistic that is the median value of human age in the population.</t>
+          <t>A population statistic about unawareness of a behaviour.</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -13156,7 +13156,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BCIO:015417</t>
+          <t>BCIO:015773</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -13167,7 +13167,7 @@
       <c r="G412" t="inlineStr"/>
       <c r="H412" t="inlineStr">
         <is>
-          <t>maximum human age population statistic</t>
+          <t>percentage unawareness of a behaviour population statistic</t>
         </is>
       </c>
       <c r="I412" t="inlineStr"/>
@@ -13175,7 +13175,7 @@
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
-          <t>A(n) human age population statistic that is the maximum value of human age in the population.</t>
+          <t>A(n) unawareness of a behaviour population statistic that is the percentage of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
@@ -13187,7 +13187,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015774</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -13198,7 +13198,7 @@
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>minimum human age population statistic</t>
+          <t>proportion unawareness of a behaviour population statistic</t>
         </is>
       </c>
       <c r="I413" t="inlineStr"/>
@@ -13206,7 +13206,7 @@
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
-          <t>A(n) human age population statistic that is the minimum value of human age in the population.</t>
+          <t>A(n) unawareness of a behaviour population statistic that is the proportion of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -13776,7 +13776,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BCIO:015422</t>
+          <t>BCIO:015719</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -13787,7 +13787,7 @@
       <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>in a legal marriage or union population statistic</t>
+          <t>single population statistic</t>
         </is>
       </c>
       <c r="I432" t="inlineStr"/>
@@ -13795,7 +13795,7 @@
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
-          <t>A population statistic about in a legal marriage or union.</t>
+          <t>A population statistic about single.</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
@@ -13807,7 +13807,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BCIO:015423</t>
+          <t>BCIO:015721</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -13819,14 +13819,14 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>percentage in a legal marriage or union population statistic</t>
+          <t>proportion single population statistic</t>
         </is>
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
-          <t>A(n) in a legal marriage or union population statistic that is the percentage of people that are in a legal marriage or union in the population.</t>
+          <t>A(n) single population statistic that is the proportion of people that are single in the population.</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
@@ -13838,7 +13838,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BCIO:015424</t>
+          <t>BCIO:015720</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -13850,14 +13850,14 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>proportion in a legal marriage or union population statistic</t>
+          <t>percentage single population statistic</t>
         </is>
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
-          <t>A(n) in a legal marriage or union population statistic that is the proportion of people that are in a legal marriage or union in the population.</t>
+          <t>A(n) single population statistic that is the percentage of people that are single in the population.</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -13869,7 +13869,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BCIO:015681</t>
+          <t>BCIO:015422</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>percentage relationship status population statistic</t>
+          <t>in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="I435" t="inlineStr"/>
@@ -13888,7 +13888,7 @@
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
-          <t>A(n) relationship status population statistic that is the percentage of people that have a relationship status in the population.</t>
+          <t>A population statistic about in a legal marriage or union.</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
@@ -13900,7 +13900,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BCIO:015719</t>
+          <t>BCIO:015423</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -13909,17 +13909,17 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>single population statistic</t>
-        </is>
-      </c>
-      <c r="I436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>percentage in a legal marriage or union population statistic</t>
+        </is>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
-          <t>A population statistic about single.</t>
+          <t>A(n) in a legal marriage or union population statistic that is the percentage of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
@@ -13931,7 +13931,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BCIO:015721</t>
+          <t>BCIO:015424</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -13943,14 +13943,14 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>proportion single population statistic</t>
+          <t>proportion in a legal marriage or union population statistic</t>
         </is>
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
-          <t>A(n) single population statistic that is the proportion of people that are single in the population.</t>
+          <t>A(n) in a legal marriage or union population statistic that is the proportion of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
@@ -13962,7 +13962,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BCIO:015720</t>
+          <t>BCIO:015681</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -13971,17 +13971,17 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>percentage single population statistic</t>
-        </is>
-      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>percentage relationship status population statistic</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
-          <t>A(n) single population statistic that is the percentage of people that are single in the population.</t>
+          <t>A(n) relationship status population statistic that is the percentage of people that have a relationship status in the population.</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -20317,7 +20317,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BCIO:015477</t>
+          <t>BCIO:015476</t>
         </is>
       </c>
       <c r="B643" t="inlineStr"/>
@@ -20330,13 +20330,13 @@
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr">
         <is>
-          <t>median language proficiency population statistic</t>
+          <t>maximum language proficiency population statistic</t>
         </is>
       </c>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
-          <t>A(n) language proficiency population statistic that is the median value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the maximum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="M643" t="inlineStr">
@@ -20348,7 +20348,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BCIO:015476</t>
+          <t>BCIO:015477</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -20361,13 +20361,13 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr">
         <is>
-          <t>maximum language proficiency population statistic</t>
+          <t>median language proficiency population statistic</t>
         </is>
       </c>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
-          <t>A(n) language proficiency population statistic that is the maximum value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the median value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
@@ -21521,7 +21521,7 @@
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F684" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -21558,7 +21558,7 @@
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
-          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -21988,7 +21988,7 @@
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -23482,7 +23482,7 @@
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
-          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
+          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
         </is>
       </c>
       <c r="M748" t="inlineStr">
@@ -24693,7 +24693,7 @@
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
-          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
+          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
         </is>
       </c>
       <c r="M784" t="inlineStr">
@@ -25228,7 +25228,7 @@
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr">
         <is>
-          <t>A cognitive representation of themselves by a person or a group about themselves.</t>
+          <t>A cognitive representation of themselves by a person or group.</t>
         </is>
       </c>
       <c r="M799" t="inlineStr">
@@ -26577,7 +26577,7 @@
       <c r="K843" t="inlineStr"/>
       <c r="L843" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -27620,7 +27620,7 @@
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I884" t="inlineStr"/>
@@ -31004,7 +31004,7 @@
       <c r="K992" t="inlineStr"/>
       <c r="L992" t="inlineStr">
         <is>
-          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
         </is>
       </c>
     </row>
@@ -31092,7 +31092,7 @@
       <c r="K995" t="inlineStr"/>
       <c r="L995" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -31118,7 +31118,7 @@
       <c r="K996" t="inlineStr"/>
       <c r="L996" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
     </row>
@@ -31303,7 +31303,7 @@
       <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t>A &lt;mental process&gt; that has positive or negative valence.</t>
         </is>
       </c>
     </row>
@@ -31919,7 +31919,7 @@
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -31928,7 +31928,7 @@
       <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
     </row>
